--- a/data-raw/registry.xlsx
+++ b/data-raw/registry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qc0824/packages/canregtools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1869759-FE67-F34C-BEEF-BA707560BD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B131D-9251-2D4B-B108-D8815650A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="2240" windowWidth="18020" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="378">
   <si>
     <t>areacode</t>
   </si>
@@ -1157,6 +1157,10 @@
   </si>
   <si>
     <t>areacode2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
       <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
@@ -3274,6 +3278,9 @@
       <c r="F111">
         <v>1</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
